--- a/webproject1/app/static/setting/notebook_bak.xlsx
+++ b/webproject1/app/static/setting/notebook_bak.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,16 +29,32 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -52,18 +68,47 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="-658425559342694731" xfId="1" hidden="0"/>
+    <cellStyle name="5752375027567475197" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,9 +471,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -457,2204 +502,2018 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>정슬기</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>김현정</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>이현지</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>우병학</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>노동혁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>정태욱</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>정채은</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>오현지</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>권채린</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>박상건</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>서지영</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>최미나</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>김병걸</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>배진우</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>김주일</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>김성렬</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>한승규</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>조재훈</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>손은지</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>김윤우</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>최해린</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>김민경</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>황혜진</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>이정원</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>리테일마케팅본부</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>김정민</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>리테일마케팅본부</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>이명원</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>리테일마케팅본부</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>조정호</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>리테일마케팅본부</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>김희연</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>마케팅전략본부</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>박영진</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>마케팅전략본부</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>이은진</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>마케팅전략본부</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>최유진</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>마케팅전략본부</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>김미례</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>기은주</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>최아람</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>황정수</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>장미진</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>박영상</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>양경미</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>위험관리실</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>이정학</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>위험관리실</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>장동욱</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>위험관리실</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>김효재</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>위험관리실</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>이신영</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>김석</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>이윤노</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>정은경</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>김환호</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>정지원</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>박영훈</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>손민하</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>김윤환</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>차헌도</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>구슬지</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>노효종</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>임대진</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>홍석준</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>조재현</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>준법감시실</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>김상태</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>준법감시실</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>김희정</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>준법감시실</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>최희정</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>준법감시실</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>장현주</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>윤세정</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>이종인</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>조정남</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>박성인</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>서덕유</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>박형태</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>오정근</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>주현석</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>김지은</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>김지현</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>김준진</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>서지윤</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>조용익</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>황주연</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>김시영</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>김태정</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>천우정</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>서진호</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>김선민</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>권지우</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>이예림</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>공택영</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1본부</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>성기전</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1본부</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>최익호</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1본부</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>김다정</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1본부</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>최일석</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2본부</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>이형철</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2본부</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>김세진</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2본부</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>권혁환</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2본부</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>이선정</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>조정현</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>마케팅기획</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>이명환</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>대체투자2팀</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>주보은</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>LDI운용3팀</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>이시은</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2팀</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>구혜진</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2팀</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>박수현</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>마케팅기획팀</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>서춘기</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>관계사</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>이육림</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2667,9 +2526,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2703,1161 +2562,1167 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>2021-11-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>최일석</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>주보은</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>2021-12-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>정은경</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>2021-12-22</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>2021-12-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>천우정</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>2021-12-24</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>2021-12-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>김주일</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>2021-12-28</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>이시은</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>천우정</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>2022-01-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>2022-01-05</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>2022-01-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>2022-01-10</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>정지원</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>구혜진</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>김석</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>김세진</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>김남훈</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>천우정</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>김남훈</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>2022-01-20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>2022-01-21</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>2022-01-28</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>공택영</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>2022-02-07</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>2022-02-07</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>김세진</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>김남훈</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>2022-02-10</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>이형철</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>2022-02-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>권채린</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>2022-02-16</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>김환호</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>2022-02-16</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>임대진</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>최일석</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>2022-02-21</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>2022-02-21</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>박수현</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>공택영</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>김희정</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr"/>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>정욱렬</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>조용익</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr"/>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>김대홍</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>서춘기</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>이육림</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>이예림</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr"/>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>송병규</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>서춘기</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr"/>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>최희정</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr"/>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>구혜진</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr"/>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>김선민</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr"/>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>김정민</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr"/>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>장현주</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr"/>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>천우정</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr"/>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
